--- a/data/trans_dic/P15_4-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P15_4-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con amigos, compañeros de trabajo/estudios, vecinos no convivientes con COVID-19</t>
+          <t>Población con amigos, compañeros de trabajo/estudios, vecinos no convivientes con COVID-19 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>9,78%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>39,34%</t>
+          <t>28,89%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>42,83%</t>
+          <t>40,57%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>33,31%</t>
+          <t>30,8%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>29,71%</t>
+          <t>29,51%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10,47%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>36,37%</t>
+          <t>29,91%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>36,91%</t>
+          <t>35,15%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,0; 15,96</t>
+          <t>3,07; 26,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,16; 18,97</t>
+          <t>0,0; 20,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26,39; 52,59</t>
+          <t>14,27; 47,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>28,83; 57,69</t>
+          <t>24,08; 59,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,38; 22,83</t>
+          <t>5,97; 25,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 11,53</t>
+          <t>1,72; 16,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>23,28; 47,88</t>
+          <t>18,36; 45,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,28; 40,92</t>
+          <t>16,89; 43,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,78; 17,07</t>
+          <t>6,25; 20,64</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,74; 12,6</t>
+          <t>2,36; 13,22</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>27,88; 46,03</t>
+          <t>20,64; 41,61</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>28,12; 46,55</t>
+          <t>24,33; 46,27</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>26,12%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>44,68%</t>
+          <t>50,02%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>37,25%</t>
+          <t>33,67%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>10,24%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>33,4%</t>
+          <t>39,58%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>33,77%</t>
+          <t>38,06%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>18,28%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>39,08%</t>
+          <t>45,12%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>35,59%</t>
+          <t>35,64%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,02; 33,05</t>
+          <t>12,89; 42,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,16; 16,96</t>
+          <t>1,6; 18,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>31,76; 59,86</t>
+          <t>29,49; 71,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,87; 51,5</t>
+          <t>16,39; 53,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,92; 15,17</t>
+          <t>4,73; 19,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,84; 11,34</t>
+          <t>0,0; 11,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>24,26; 43,93</t>
+          <t>27,67; 54,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>24,54; 44,45</t>
+          <t>24,72; 52,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,37; 20,61</t>
+          <t>11,1; 28,37</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,37; 11,72</t>
+          <t>2,02; 11,55</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>31,23; 49,94</t>
+          <t>32,67; 59,6</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>26,33; 44,03</t>
+          <t>24,74; 47,89</t>
         </is>
       </c>
     </row>
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>21,66%</t>
+          <t>17,14%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>13,09%</t>
+          <t>13,89%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>28,17%</t>
+          <t>34,78%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>41,34%</t>
+          <t>51,03%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>15,67%</t>
+          <t>16,93%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>11,35%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>36,84%</t>
+          <t>37,4%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>51,59%</t>
+          <t>45,83%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>17,01%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>10,91%</t>
+          <t>12,32%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>32,76%</t>
+          <t>36,38%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>46,58%</t>
+          <t>47,95%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,52; 30,46</t>
+          <t>8,74; 29,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,07; 25,69</t>
+          <t>6,82; 25,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,36; 37,38</t>
+          <t>23,85; 49,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>29,75; 53,35</t>
+          <t>37,31; 64,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,58; 21,97</t>
+          <t>10,55; 25,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,22; 14,03</t>
+          <t>6,05; 18,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>29,18; 45,66</t>
+          <t>29,09; 47,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>43,44; 59,61</t>
+          <t>35,32; 55,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,8; 23,61</t>
+          <t>11,66; 23,6</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,34; 16,73</t>
+          <t>7,95; 18,0</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>27,03; 39,35</t>
+          <t>29,59; 44,45</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>38,93; 53,22</t>
+          <t>39,23; 56,2</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>21,78%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,99%</t>
+          <t>14,85%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>33,24%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>39,27%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>17,41%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>7,96%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>36,0%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>40,33%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>15,02%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>7,1%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>33,89%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>40,17%</t>
+          <t>35,1%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>17,75%</t>
+          <t>19,43%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>11,14%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>34,85%</t>
+          <t>34,72%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>40,24%</t>
+          <t>37,08%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,24; 28,22</t>
+          <t>13,63; 31,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,91; 20,82</t>
+          <t>8,56; 24,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>28,48; 45,37</t>
+          <t>23,99; 44,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>32,2; 49,37</t>
+          <t>29,36; 50,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,28; 22,35</t>
+          <t>10,33; 25,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,86; 11,45</t>
+          <t>3,78; 14,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,27; 41,69</t>
+          <t>26,31; 45,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>32,25; 48,32</t>
+          <t>26,77; 44,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,43; 22,94</t>
+          <t>13,92; 26,01</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,86; 13,96</t>
+          <t>7,3; 16,61</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>29,48; 41,14</t>
+          <t>28,34; 42,4</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>34,67; 46,46</t>
+          <t>30,87; 44,89</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>16,15%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>23,09%</t>
+          <t>23,04%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>39,27%</t>
+          <t>46,47%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>14,67%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>11,31%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>25,05%</t>
+          <t>34,99%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>27,22%</t>
+          <t>22,72%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>12,87%</t>
+          <t>15,52%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>9,75%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>24,03%</t>
+          <t>28,0%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>33,41%</t>
+          <t>36,27%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,69; 20,56</t>
+          <t>8,73; 27,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,21; 12,26</t>
+          <t>2,96; 17,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,65; 30,92</t>
+          <t>13,1; 33,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>29,26; 49,98</t>
+          <t>33,25; 59,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,18; 19,71</t>
+          <t>7,03; 25,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,91; 13,54</t>
+          <t>5,22; 21,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,15; 34,08</t>
+          <t>23,68; 48,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>19,11; 35,61</t>
+          <t>13,11; 35,43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,91; 17,7</t>
+          <t>9,57; 22,47</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,06; 10,76</t>
+          <t>5,47; 16,8</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>18,25; 29,93</t>
+          <t>20,44; 36,13</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>26,79; 40,66</t>
+          <t>27,17; 47,13</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>18,7%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>24,3%</t>
+          <t>31,12%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>11,63%</t>
+          <t>22,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>13,31%</t>
+          <t>14,32%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>16,71%</t>
+          <t>26,1%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,84; 21,25</t>
+          <t>4,57; 24,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,13; 10,47</t>
+          <t>0,0; 11,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,35; 30,51</t>
+          <t>7,76; 33,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,71; 35,23</t>
+          <t>17,1; 46,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,65; 13,87</t>
+          <t>3,73; 22,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,9</t>
+          <t>0,0; 10,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,22; 17,51</t>
+          <t>4,12; 23,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,39; 18,75</t>
+          <t>11,75; 37,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,32; 15,34</t>
+          <t>5,36; 18,98</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,13; 6,55</t>
+          <t>0,0; 6,43</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>8,45; 19,57</t>
+          <t>8,01; 22,37</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>11,04; 22,85</t>
+          <t>17,82; 36,14</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>16,82%</t>
+          <t>18,13%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>32,37%</t>
+          <t>32,63%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>38,42%</t>
+          <t>40,63%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>14,44%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>29,46%</t>
+          <t>32,87%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>33,4%</t>
+          <t>34,18%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>16,15%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>30,85%</t>
+          <t>32,76%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>35,86%</t>
+          <t>37,33%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,2; 20,37</t>
+          <t>14,17; 23,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,2; 13,17</t>
+          <t>6,72; 13,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>28,56; 37,52</t>
+          <t>26,65; 41,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>34,29; 44,43</t>
+          <t>33,78; 46,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,11; 15,11</t>
+          <t>11,51; 18,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,35; 8,08</t>
+          <t>5,14; 10,25</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>25,82; 33,28</t>
+          <t>28,56; 37,38</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>29,33; 37,12</t>
+          <t>29,3; 39,05</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12,6; 16,68</t>
+          <t>13,54; 18,93</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>6,33; 9,64</t>
+          <t>6,53; 10,61</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>28,01; 34,15</t>
+          <t>28,95; 36,71</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>32,42; 38,92</t>
+          <t>33,34; 41,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1639,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con amigos, compañeros de trabajo/estudios, vecinos no convivientes con COVID-19 (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>8422</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7020</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>30545</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>51748</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>15786</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>8490</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>36984</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>36157</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>24207</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>15510</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>67529</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>87904</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2644; 22594</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 21458</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15088; 50572</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>30712; 75728</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>7024; 30043</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2311; 22124</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>22050; 54874</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>20696; 53817</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>12736; 42038</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>5697; 31854</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>46595; 93948</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>60844; 115706</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>35747</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12668</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>71724</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>51938</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>13645</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5070</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>50154</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>48072</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>49392</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>17738</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>121878</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>100011</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>17643; 58540</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2707; 31346</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>42291; 102585</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>25284; 82074</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>6300; 26027</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 18818</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>35064; 69318</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>31228; 65791</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>29987; 76640</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>6735; 38555</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>88242; 160979</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>69407; 134365</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>23946</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>22513</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>46731</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>70238</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>36477</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>29983</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>78311</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>91873</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>60423</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>52496</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>125042</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>162112</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>12211; 40666</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11045; 40885</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>32044; 66398</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>51349; 88114</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>22714; 54775</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>15985; 49724</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>60902; 99655</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>70801; 110613</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>41401; 83821</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>33891; 76710</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>101699; 152781</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>132632; 190016</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>35603</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>27731</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>53594</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>61340</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>33311</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>17380</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>66942</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>60539</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>68914</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>45110</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>120537</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>121879</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>22278; 51234</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>15982; 45820</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>38684; 71301</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>45865; 79599</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>19751; 49034</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>8244; 31603</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>48921; 84109</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>46164; 77131</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>49392; 92271</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>29577; 67267</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>98390; 147204</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>101473; 147543</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>22428</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>13532</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>30426</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>57243</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>15181</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>13140</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>32823</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>21052</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>37609</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>26672</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>63249</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>78294</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>12122; 37578</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4657; 27183</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>17305; 44250</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>40960; 73317</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>7278; 26798</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>6061; 25042</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>22217; 45957</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>12148; 32831</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>23195; 54453</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>14965; 45966</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>46168; 81609</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>58654; 101738</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>10754</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2507</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>16331</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>28051</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>10935</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2818</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>11226</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>24333</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>21689</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>5325</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>27557</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>52384</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>4120; 22055</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 12693</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>6775; 29635</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>15409; 41851</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>3995; 23761</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 13933</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>4330; 24319</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>13000; 40988</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>10576; 37439</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 15870</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>15420; 43060</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>35776; 72550</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>234.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>277.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>136898</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>85971</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>249352</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>320558</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>125335</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>76881</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>276441</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>282026</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>262234</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>162852</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>525792</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>602584</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>107036; 173910</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>59880; 121399</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>203652; 319529</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>266565; 368804</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>99904; 158696</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>53227; 106109</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>240234; 314406</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>241728; 322150</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>219764; 307248</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>125742; 204339</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>464629; 589278</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>538049; 663476</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>